--- a/HU_Organizacion_01.xlsx
+++ b/HU_Organizacion_01.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DocumentosIsa\SEMESTRE_9\Arquitectura de Sistemas\Unidad 2\Documentos-Repositorio\UniversidadDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALCI\Documents\GitHub\UniversidadDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062BAA6A-4BD3-4B1C-B70B-C2258CCA76C9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario Módulo ORG" sheetId="1" r:id="rId1"/>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -218,9 +219,26 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -230,29 +248,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{A3FD31C4-CF48-4833-9DD3-3B30F05F20CE}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -526,7 +555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -542,130 +571,130 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="B6:B7"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="E8:E11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
